--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183411.2347615556</v>
+        <v>178883.9072623987</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="E2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="F2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="G2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="H2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="I2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="J2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="K2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="L2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="M2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="P2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="F4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="H4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="I4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="J4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="K4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="L4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="M4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="N4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="O4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="P4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6005.213238226694</v>
+        <v>-6750.748617138379</v>
       </c>
       <c r="C6" t="n">
-        <v>-6005.213238226694</v>
+        <v>-6750.748617138379</v>
       </c>
       <c r="D6" t="n">
-        <v>-6005.213238226694</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="E6" t="n">
-        <v>-79853.5574971473</v>
+        <v>-80295.36558709729</v>
       </c>
       <c r="F6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="G6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="H6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="I6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="J6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="K6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="L6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="M6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="N6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="O6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
       <c r="P6" t="n">
-        <v>53246.44250285275</v>
+        <v>52804.6344129027</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178883.9072623987</v>
+        <v>192610.2653998166</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515712</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="E2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="F2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="G2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="H2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="I2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="J2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="K2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="L2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="M2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="P2" t="n">
-        <v>91456.43851989089</v>
+        <v>91456.43851989086</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138379</v>
+        <v>-6750.748617138408</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138379</v>
+        <v>-6750.748617138408</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-6750.748617138408</v>
       </c>
       <c r="E6" t="n">
-        <v>-80295.36558709729</v>
+        <v>-80295.36558709737</v>
       </c>
       <c r="F6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="G6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="H6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="I6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="J6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="K6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="L6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="M6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="N6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="O6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
       <c r="P6" t="n">
-        <v>52804.6344129027</v>
+        <v>52804.63441290268</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192610.2653998166</v>
+        <v>67500.36660234015</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="D2" t="n">
         <v>86005.92442515711</v>
       </c>
       <c r="E2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989084</v>
       </c>
       <c r="F2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="G2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="H2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="I2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="J2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="K2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="L2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="M2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="P2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138408</v>
+        <v>-21901.42258717314</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138408</v>
+        <v>-21901.42258717314</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138408</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="E6" t="n">
-        <v>-80295.36558709737</v>
+        <v>-95105.38242621129</v>
       </c>
       <c r="F6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="G6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="H6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="I6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="J6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="K6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="L6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="M6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="N6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="O6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
       <c r="P6" t="n">
-        <v>52804.63441290268</v>
+        <v>37994.6175737888</v>
       </c>
     </row>
   </sheetData>
